--- a/Excel/Copy of Tables of results v4.xlsx
+++ b/Excel/Copy of Tables of results v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Uni\FINAL_Year\Dissertation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D446F5E1-5543-41A4-9D05-95F32F9FBEC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90CFFE5-9443-428D-8305-5AAA3C7C01D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{A522EAAA-04A2-4FA9-A435-DE8F63DB9FA3}"/>
   </bookViews>
@@ -14171,71 +14171,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>avgData!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No filter</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(avgData!$E$1,avgData!$H$1,avgData!$K$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>filter time (on 1kHz)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>filter time (on 60Hz)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>filter time (vacuum)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(avgData!$E$2,avgData!$H$2,avgData!$K$2)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8561-4B7F-8ECC-9D2A4879F8CC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -14576,27 +14511,28 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>avgData!$A$8</c15:sqref>
+                          <c15:sqref>avgData!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No filter</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -14632,6 +14568,90 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
+                          <c15:sqref>(avgData!$E$2,avgData!$H$2,avgData!$K$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-8561-4B7F-8ECC-9D2A4879F8CC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>avgData!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(avgData!$E$1,avgData!$H$1,avgData!$K$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>filter time (on 1kHz)</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>filter time (on 60Hz)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>filter time (vacuum)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
                           <c15:sqref>(avgData!$E$8,avgData!$H$8,avgData!$K$8)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
@@ -14642,7 +14662,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-8561-4B7F-8ECC-9D2A4879F8CC}"/>
                   </c:ext>
@@ -32959,15 +32979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
+      <xdr:colOff>481012</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32995,15 +33015,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33033,15 +33053,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33447,20 +33467,20 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
@@ -36506,19 +36526,22 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -36546,13 +36569,13 @@
       <c r="H1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L1" s="15"/>
@@ -36582,13 +36605,13 @@
       <c r="H2" s="15">
         <v>0</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="18">
         <v>1.7070131151842541E-2</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="18">
         <v>8.5489792231487227E-2</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="18">
         <v>0</v>
       </c>
       <c r="L2" s="15"/>
@@ -36618,13 +36641,13 @@
       <c r="H3" s="15">
         <v>7.5452820000000004E-2</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="18">
         <v>2.9134142871573419E-2</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="18">
         <v>1.5126685951207027E-2</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="18">
         <v>1.0322726200000001</v>
       </c>
       <c r="L3" s="15"/>
@@ -36654,13 +36677,13 @@
       <c r="H4" s="15">
         <v>6.0307920000000001E-2</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="18">
         <v>2.9579742039896901E-2</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="18">
         <v>1.5466778905267093E-2</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="18">
         <v>0.33740592000000003</v>
       </c>
       <c r="L4" s="15"/>
@@ -36690,13 +36713,13 @@
       <c r="H5" s="15">
         <v>5.062686000000001E-2</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="18">
         <v>2.9329799235981058E-2</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="18">
         <v>1.8980432829498649E-2</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="18">
         <v>0.22237309999999999</v>
       </c>
       <c r="L5" s="7"/>
@@ -36726,49 +36749,49 @@
       <c r="H6" s="15">
         <v>2.4643395799999999</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="18">
         <v>1.5445467999286261E-2</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="18">
         <v>1.2680851433124715E-2</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="18">
         <v>5.8178874000000009</v>
       </c>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="18">
         <v>0.25085800447537548</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="18">
         <v>0.2202188983642254</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="18">
         <v>6.7709573460591879E-2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="18">
         <v>0.72062574000000013</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="18">
         <v>0.12602352499530695</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="18">
         <v>4.4452306866389416E-2</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="18">
         <v>7.5240951200000001</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="18">
         <v>2.1290080577466959E-2</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="18">
         <v>6.2457601890041504E-3</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="18">
         <v>8.1645418599999999</v>
       </c>
       <c r="L7" s="15"/>
@@ -37202,17 +37225,16 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="14" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -37231,7 +37253,7 @@
       <c r="E1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="18" t="s">
         <v>20</v>
       </c>
       <c r="O1" s="10" t="s">
@@ -37254,7 +37276,7 @@
       <c r="E2" s="15">
         <v>0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="18">
         <v>2.3126093995199E-2</v>
       </c>
     </row>
@@ -37274,7 +37296,7 @@
       <c r="E3" s="15">
         <v>1.61791266987041E-2</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="18">
         <v>2.0644148618710501E-2</v>
       </c>
     </row>
@@ -37294,7 +37316,7 @@
       <c r="E4" s="15">
         <v>8.7530107045868197E-3</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="18">
         <v>0</v>
       </c>
     </row>
@@ -37314,7 +37336,7 @@
       <c r="E5" s="15">
         <v>1.30769365249208E-2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="18">
         <v>2.0168461264879901E-2</v>
       </c>
     </row>
@@ -37334,7 +37356,7 @@
       <c r="E6" s="15">
         <v>9.6551651831113493E-3</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="18">
         <v>2.1411951880423299E-2</v>
       </c>
     </row>
@@ -37354,7 +37376,7 @@
       <c r="E7" s="15">
         <v>6.3075789744922506E-2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="18">
         <v>3.13505852520643E-2</v>
       </c>
     </row>
@@ -37374,7 +37396,7 @@
       <c r="E8" s="15">
         <v>0.25838609245601801</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="18">
         <v>3.2581273209340102E-2</v>
       </c>
     </row>
@@ -37394,7 +37416,7 @@
       <c r="E9" s="15">
         <v>0.346546172776314</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="18">
         <v>3.2884897285117301E-2</v>
       </c>
     </row>
@@ -37414,7 +37436,7 @@
       <c r="E10" s="15">
         <v>0.119889215233867</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="18">
         <v>1.6063427324618001E-2</v>
       </c>
     </row>
@@ -37434,7 +37456,7 @@
       <c r="E11" s="15">
         <v>0.36293182023454401</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="18">
         <v>3.2790531286727403E-2</v>
       </c>
     </row>
@@ -37454,7 +37476,7 @@
       <c r="E12" s="15">
         <v>5.8444813385787601E-2</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="18">
         <v>3.1663240102701599E-2</v>
       </c>
     </row>
@@ -37474,7 +37496,7 @@
       <c r="E13" s="15">
         <v>0.25871731253959701</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="18">
         <v>3.2974704566981698E-2</v>
       </c>
     </row>
@@ -37494,7 +37516,7 @@
       <c r="E14" s="15">
         <v>0.34662165246011201</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="18">
         <v>3.5825343323010302E-2</v>
       </c>
     </row>
@@ -37514,7 +37536,7 @@
       <c r="E15" s="15">
         <v>0.115541143115856</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="18">
         <v>1.4886551401657599E-2</v>
       </c>
     </row>
@@ -37534,7 +37556,7 @@
       <c r="E16" s="15">
         <v>0.36992104672084303</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="18">
         <v>3.2548870805133301E-2</v>
       </c>
     </row>
@@ -37554,7 +37576,7 @@
       <c r="E17" s="15">
         <v>7.1247455342277194E-2</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="18">
         <v>3.1317090732169199E-2</v>
       </c>
     </row>
@@ -37574,7 +37596,7 @@
       <c r="E18" s="15">
         <v>0.27338624055726002</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="18">
         <v>2.9308734483464698E-2</v>
       </c>
     </row>
@@ -37594,7 +37616,7 @@
       <c r="E19" s="15">
         <v>0.35129919094655299</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="18">
         <v>3.7563711077636501E-2</v>
       </c>
     </row>
@@ -37614,7 +37636,7 @@
       <c r="E20" s="15">
         <v>0.127587110355497</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="18">
         <v>1.44212796250228E-2</v>
       </c>
     </row>
@@ -37634,7 +37656,7 @@
       <c r="E21" s="15">
         <v>0.36524278674698102</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="18">
         <v>3.4038180261612101E-2</v>
       </c>
     </row>
@@ -37654,7 +37676,7 @@
       <c r="E22" s="15">
         <v>3.74904732350715E-2</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="18">
         <v>2.8245528371981701E-2</v>
       </c>
     </row>
@@ -37674,7 +37696,7 @@
       <c r="E23" s="15">
         <v>5.3480109544686801E-2</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="18">
         <v>1.24241742405469E-2</v>
       </c>
     </row>
@@ -37694,7 +37716,7 @@
       <c r="E24" s="15">
         <v>0</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="18">
         <v>0</v>
       </c>
     </row>
@@ -37714,7 +37736,7 @@
       <c r="E25" s="15">
         <v>2.4785035356638299E-2</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="18">
         <v>1.37094355455647E-2</v>
       </c>
     </row>
@@ -37734,7 +37756,7 @@
       <c r="E26" s="15">
         <v>5.74006091275557E-2</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="18">
         <v>2.2848201838338002E-2</v>
       </c>
     </row>
@@ -37754,7 +37776,7 @@
       <c r="E27" s="15">
         <v>5.4457146652880102E-2</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="18">
         <v>1.75299800637439E-2</v>
       </c>
     </row>
@@ -37774,7 +37796,7 @@
       <c r="E28" s="15">
         <v>0.13955392036956801</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="18">
         <v>2.4514919073453399E-2</v>
       </c>
     </row>
@@ -37794,7 +37816,7 @@
       <c r="E29" s="15">
         <v>0.17445758212745799</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="18">
         <v>2.63552810156313E-2</v>
       </c>
     </row>
@@ -37814,7 +37836,7 @@
       <c r="E30" s="15">
         <v>5.62888969065597E-2</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="18">
         <v>1.09551509155756E-2</v>
       </c>
     </row>
@@ -37834,7 +37856,7 @@
       <c r="E31" s="15">
         <v>0.20536007892006899</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="18">
         <v>2.7095071818930599E-2</v>
       </c>
     </row>
@@ -37853,18 +37875,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DDB9EE-5E7E-4346-8A5A-21EC924D9372}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -38513,7 +38535,7 @@
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">

--- a/Excel/Copy of Tables of results v4.xlsx
+++ b/Excel/Copy of Tables of results v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Uni\FINAL_Year\Dissertation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90CFFE5-9443-428D-8305-5AAA3C7C01D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB0DA23-5905-455C-A3A4-61073ED0EAFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{A522EAAA-04A2-4FA9-A435-DE8F63DB9FA3}"/>
+    <workbookView xWindow="7200" yWindow="795" windowWidth="21600" windowHeight="11385" xr2:uid="{A522EAAA-04A2-4FA9-A435-DE8F63DB9FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="2" r:id="rId1"/>
@@ -33466,8 +33466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938C8F6B-38BB-4F78-8766-277B22481226}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38527,7 +38527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FA0EB7-1895-4D82-91BB-779D518BA066}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
